--- a/caProject/src/main/java/testdata/TestData1.xlsx
+++ b/caProject/src/main/java/testdata/TestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="2985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="2820"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name=" Client add Business" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t xml:space="preserve">   Client Name</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Proprietary</t>
+  </si>
+  <si>
+    <t>NewProprietary</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,6 +781,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1082,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1173,9 @@
       <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6"/>
+      <c r="T1" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
@@ -1227,6 +1236,9 @@
       </c>
       <c r="S2" t="s">
         <v>30</v>
+      </c>
+      <c r="T2" s="36">
+        <v>29221</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1595,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1640,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
